--- a/Acquisitions/BOM%20Redesigned%20PFE.xlsx
+++ b/Acquisitions/BOM%20Redesigned%20PFE.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiffany\Documents\Engineering\ECE4899 - Senior Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiffany\Documents\Engineering\ECE4899 - Senior Design\git_logicals\Acquisitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11115" windowHeight="2520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11115" windowHeight="2520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171026"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -167,8 +167,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -502,14 +502,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
@@ -521,7 +521,7 @@
     <col min="8" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -550,7 +550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1">
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -576,11 +576,11 @@
         <v>6.24</v>
       </c>
       <c r="I2" s="2">
-        <f>D2*H2</f>
+        <f t="shared" ref="I2:I10" si="0">D2*H2</f>
         <v>24.96</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1">
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -606,11 +606,11 @@
         <v>0.1</v>
       </c>
       <c r="I3" s="2">
-        <f>D3*H3</f>
+        <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1">
+    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -636,11 +636,11 @@
         <v>0.1</v>
       </c>
       <c r="I4" s="2">
-        <f>D4*H4</f>
+        <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1">
+    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -666,11 +666,11 @@
         <v>0.1</v>
       </c>
       <c r="I5" s="2">
-        <f>D5*H5</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="2" customFormat="1">
+    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
@@ -696,11 +696,11 @@
         <v>0.1</v>
       </c>
       <c r="I6" s="2">
-        <f>D6*H6</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="2" customFormat="1">
+    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
@@ -726,11 +726,11 @@
         <v>0.52</v>
       </c>
       <c r="I7" s="2">
-        <f>D7*H7</f>
+        <f t="shared" si="0"/>
         <v>14.56</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="2" customFormat="1">
+    <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
@@ -756,11 +756,11 @@
         <v>1.43</v>
       </c>
       <c r="I8" s="2">
-        <f>D8*H8</f>
+        <f t="shared" si="0"/>
         <v>5.72</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="2" customFormat="1">
+    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
@@ -786,11 +786,11 @@
         <v>124</v>
       </c>
       <c r="I9" s="2">
-        <f>D9*H9</f>
+        <f t="shared" si="0"/>
         <v>248</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="1" customFormat="1">
+    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -816,7 +816,7 @@
         <v>0.1</v>
       </c>
       <c r="I10" s="1">
-        <f>D10*H10</f>
+        <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
     </row>
